--- a/VennOutput/NonTrimmed_OUTPUT9_VennResults.xlsx
+++ b/VennOutput/NonTrimmed_OUTPUT9_VennResults.xlsx
@@ -384,7 +384,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MODERNA_JANSSEN</t>
+          <t>Moderna_Janssen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -396,7 +396,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PFIZER_JANSSEN</t>
+          <t>Pfizer_Janssen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -864,7 +864,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1236,7 +1236,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1272,7 +1272,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1284,7 +1284,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1332,7 +1332,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1344,7 +1344,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1416,7 +1416,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1440,7 +1440,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>JANSSEN</t>
+          <t>Janssen</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1464,7 +1464,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1476,7 +1476,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PFIZER_MODERNA</t>
+          <t>Pfizer_Moderna</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1512,7 +1512,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1524,7 +1524,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t>Moderna</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1740,7 +1740,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1764,7 +1764,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1836,7 +1836,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1860,7 +1860,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1872,7 +1872,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1920,7 +1920,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1944,7 +1944,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1956,7 +1956,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -1992,7 +1992,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2040,7 +2040,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2220,7 +2220,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">

--- a/VennOutput/NonTrimmed_OUTPUT9_VennResults.xlsx
+++ b/VennOutput/NonTrimmed_OUTPUT9_VennResults.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,81 @@
           <t>Detail</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.x</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.x</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Case No.y</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PRR.y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases.y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared.y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Significance.y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Case No</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PRR</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage of cases</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Xsquared</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -380,6 +455,81 @@
           <t>Taste disorder</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.6283277288293</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>690.31117396375</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.2270009353107</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>449.58348075646</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.0509908039405</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>107.26684828066</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -392,6 +542,56 @@
           <t>Poor quality product administered</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>6012</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>8.3962236874108</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10915.962705209</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2.0419643185026</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>321.7445606062</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -404,6 +604,56 @@
           <t>Acute kidney injury</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.9126569868806</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1023.459708257</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2.1719247765246</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>156.80762093145</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -416,6 +666,56 @@
           <t>Anticoagulant therapy</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.1837619024623</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>727.66071505866</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3.0538432077034</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>647.53651107555</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -428,6 +728,56 @@
           <t>Blood pressure measurement</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.8582246887909</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2776.2754858879</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2.4897886832401</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>404.16388149599</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -440,6 +790,56 @@
           <t>Blood test</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10903</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.246927257754</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4415.1666952393</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2163</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2.1848151998609</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1290.1090234124</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -452,6 +852,56 @@
           <t>Body temperature</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7021</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.3268680923691</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5519.6578012843</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3.2440360701732</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2221.1030916038</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -464,6 +914,56 @@
           <t>Cardiac disorder</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.6657369167634</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>525.05313980923</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2.152712704198</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>94.120269237197</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -476,6 +976,56 @@
           <t>Chest X-ray</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.1277498016853</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1428.5345312673</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.1267503199624</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>442.50215025951</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -488,6 +1038,56 @@
           <t>Computerised tomogram</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5169</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.0797575285673</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1737.8887829382</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2.6530985634225</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1193.2211545405</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -500,6 +1100,56 @@
           <t>Computerised tomogram thorax abnormal</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1215</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.1905192884421</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>458.38905475031</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.0863608231953</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>415.84246590849</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -512,6 +1162,56 @@
           <t>COVID-19 pneumonia</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3284</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.3161447087722</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2559.7738869957</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.8429999032115</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>719.20486388935</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -524,6 +1224,56 @@
           <t>Deep vein thrombosis</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.0588303063212</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>483.30705790769</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>4.993792842878</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1687.6867676318</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -536,6 +1286,56 @@
           <t>Dysmenorrhoea</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.7435795577953</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1216.8797195821</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2.2534906228704</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>133.40926210047</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -548,6 +1348,56 @@
           <t>Dyspnoea exertional</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.393290330683</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>525.91509632325</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2.5230913062631</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>208.40341515934</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -560,6 +1410,56 @@
           <t>Electrocardiogram</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7585</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.5188006847825</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3847.9699646563</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2.0385663262973</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>650.33551884374</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -572,6 +1472,56 @@
           <t>Facial paralysis</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.1435444916778</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>559.70133149578</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2.0824595668517</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>156.60438174181</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -584,6 +1534,56 @@
           <t>Fibrin D dimer</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.4867667679257</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>570.09652933231</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4.7123910926691</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1043.5194558472</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +1596,56 @@
           <t>Fibrin D dimer increased</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.5428089884389</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>575.8902597015</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3.7321704424737</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>579.45599904289</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -608,6 +1658,56 @@
           <t>Head discomfort</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.4682474757021</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>933.12995918297</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2.4285290194234</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>303.66857393822</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -620,6 +1720,56 @@
           <t>Heart rate</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2657</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.9574034235779</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2568.668153159</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2.0134141910901</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>172.10069359738</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -632,6 +1782,56 @@
           <t>Heavy menstrual bleeding</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3098</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.0758130664225</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3094.8870894472</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2.6028253605303</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>475.12301883774</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -644,6 +1844,56 @@
           <t>Lung opacity</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.8612639043075</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>706.15613087047</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2.9222402882995</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>285.83213704575</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -656,6 +1906,56 @@
           <t>Magnetic resonance imaging</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.7847291184103</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2473.0003230395</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2.578879812712</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>736.4895973847</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -668,6 +1968,56 @@
           <t>Magnetic resonance imaging head</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.8969819667072</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>817.49196448138</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2.962046352054</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>335.09472711213</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -680,6 +2030,56 @@
           <t>Menstrual disorder</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.8349576067958</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1730.7463036389</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2.1562829998738</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>156.69790565909</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -692,6 +2092,56 @@
           <t>Menstruation irregular</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.5222699471046</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1992.2126756349</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2.2408572266882</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>238.07788295992</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -704,6 +2154,56 @@
           <t>Myocardial infarction</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.1641519266368</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>391.38202559715</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2.4032346834318</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>174.58857344086</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -716,6 +2216,56 @@
           <t>Off label use</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.6839707863672</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1511.961511128</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4.8880530382334</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1359.3314023748</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -728,6 +2278,56 @@
           <t>Pulmonary embolism</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2072</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.1994663731093</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>790.47501460782</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>3.9065785280616</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>1297.9812504724</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -740,6 +2340,56 @@
           <t>SARS-CoV-2 antibody test</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1364</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.5221790629286</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1512.1089875179</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>3.1105369740659</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>332.92305007932</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -752,6 +2402,56 @@
           <t>Suspected COVID-19</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1751</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.9397204575839</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1682.3016479905</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>8.1104964081356</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3676.0223633569</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -764,6 +2464,56 @@
           <t>Thrombosis</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2367</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.117544579358</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>827.54171651104</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1311</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6.9757925446417</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>5204.4828018614</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -776,6 +2526,56 @@
           <t>Vaginal haemorrhage</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.5766447223369</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>545.29756969825</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2.0821361670432</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>93.742486463218</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -788,6 +2588,31 @@
           <t>Adverse drug reaction</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6.6618332650595</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1011.7156785244</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -800,6 +2625,31 @@
           <t>Adverse event</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6.0431986666236</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>1421.2687425457</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -812,6 +2662,31 @@
           <t>Angiogram</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2.9312771322163</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>242.10817587318</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -824,6 +2699,31 @@
           <t>Angiogram pulmonary abnormal</t>
         </is>
       </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>3.8494077667818</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>391.88895777994</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -836,6 +2736,31 @@
           <t>Antibody test</t>
         </is>
       </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>4.4289593210621</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>483.24046903244</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -848,6 +2773,31 @@
           <t>Blood glucose</t>
         </is>
       </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2.1401156753036</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>96.566586878866</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -860,6 +2810,31 @@
           <t>Cerebrovascular accident</t>
         </is>
       </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2.9448666956332</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>695.42736416665</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -872,6 +2847,31 @@
           <t>Chills</t>
         </is>
       </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>11827</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.2884229248535</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>8446.8864933775</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -884,6 +2884,31 @@
           <t>Cold sweat</t>
         </is>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2.5545059141068</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>593.86368705519</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -896,6 +2921,31 @@
           <t>Computerised tomogram head</t>
         </is>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2.5935468054313</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>326.81370671957</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -908,6 +2958,31 @@
           <t>Computerised tomogram head abnormal</t>
         </is>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>3.8147523723214</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>398.9220076455</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -920,6 +2995,31 @@
           <t>Computerised tomogram thorax</t>
         </is>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2.944776360995</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>255.71650647728</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -932,6 +3032,31 @@
           <t>Contusion</t>
         </is>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2.078958902762</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>362.80018214413</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -944,6 +3069,31 @@
           <t>Death</t>
         </is>
       </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1573</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2.2858013690062</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>1047.263545788</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -956,6 +3106,31 @@
           <t>Disorientation</t>
         </is>
       </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2.0417285284581</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>161.43109787682</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -968,6 +3143,31 @@
           <t>Endotracheal intubation</t>
         </is>
       </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2.3672953493221</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>218.22905484926</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -980,6 +3180,31 @@
           <t>Epistaxis</t>
         </is>
       </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2.2710647976181</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>225.32831576479</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -992,6 +3217,31 @@
           <t>Eye pain</t>
         </is>
       </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2.0905927820853</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>239.27073400392</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1004,6 +3254,31 @@
           <t>Feeling cold</t>
         </is>
       </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2.8945598199238</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1308.6930423942</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1016,6 +3291,31 @@
           <t>Feeling of body temperature change</t>
         </is>
       </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2.8444717026693</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>246.49946871618</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1028,6 +3328,31 @@
           <t>Gait inability</t>
         </is>
       </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2.1708206535212</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>189.71919682725</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1040,6 +3365,31 @@
           <t>Head injury</t>
         </is>
       </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2.0135125237361</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>158.8875248964</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1052,6 +3402,31 @@
           <t>Headache</t>
         </is>
       </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>16780</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2.2112625010894</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>11413.596681457</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1064,6 +3439,31 @@
           <t>Heart rate decreased</t>
         </is>
       </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2.0217560146926</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>75.748521962359</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1076,6 +3476,31 @@
           <t>Hot flush</t>
         </is>
       </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2.3706761598179</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>347.16666278017</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1088,6 +3513,31 @@
           <t>Hyperhidrosis</t>
         </is>
       </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2.7260896281533</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>3782.6775095297</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1100,6 +3550,31 @@
           <t>Impaired work ability</t>
         </is>
       </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2.0971293699522</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>411.0392390985</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1112,6 +3587,31 @@
           <t>Intensive care</t>
         </is>
       </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2.0850040352177</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>242.21237651034</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1124,6 +3624,31 @@
           <t>Laboratory test</t>
         </is>
       </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2.1376328730609</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>706.59840425652</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1136,6 +3661,31 @@
           <t>Loss of consciousness</t>
         </is>
       </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2.280559989289</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1310.4436876781</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1148,6 +3698,31 @@
           <t>Magnetic resonance imaging head abnormal</t>
         </is>
       </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>3.516247267582</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>385.75242347393</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1160,6 +3735,31 @@
           <t>Magnetic resonance imaging head normal</t>
         </is>
       </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2.5114981548977</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>138.62851206801</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1172,6 +3772,31 @@
           <t>Magnetic resonance imaging normal</t>
         </is>
       </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2.2541042832217</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>107.93977084384</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1184,6 +3809,31 @@
           <t>Mechanical ventilation</t>
         </is>
       </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2.5946915312787</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>152.4614354531</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1196,6 +3846,31 @@
           <t>Migraine</t>
         </is>
       </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2.6462271985865</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>1250.311858399</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1208,6 +3883,31 @@
           <t>Muscle spasms</t>
         </is>
       </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2.630180576186</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1310.0980410524</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1220,6 +3920,31 @@
           <t>Muscle tightness</t>
         </is>
       </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2.2940084312217</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>196.90665379754</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1232,6 +3957,31 @@
           <t>Oxygen saturation</t>
         </is>
       </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>3.2647740354959</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>271.80142492837</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1244,6 +3994,31 @@
           <t>Panic attack</t>
         </is>
       </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2.1800313933376</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>93.788140052581</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1256,6 +4031,31 @@
           <t>Parosmia</t>
         </is>
       </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2.2749500728666</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>105.87977352985</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1268,6 +4068,31 @@
           <t>Platelet count</t>
         </is>
       </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>4.9858742677505</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>537.22750916097</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1280,6 +4105,31 @@
           <t>Platelet count decreased</t>
         </is>
       </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2.0930270796098</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>171.45738848464</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1292,6 +4142,31 @@
           <t>Platelet count normal</t>
         </is>
       </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2.6826896477459</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>257.81904880501</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1304,6 +4179,31 @@
           <t>Pulmonary thrombosis</t>
         </is>
       </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>5.3791724117627</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>537.68669929673</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1316,6 +4216,31 @@
           <t>Seizure</t>
         </is>
       </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2.3771907098513</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>534.33859324216</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1328,6 +4253,31 @@
           <t>Sensitive skin</t>
         </is>
       </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2.9249765096674</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>213.96597334807</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1340,6 +4290,31 @@
           <t>Sensory disturbance</t>
         </is>
       </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2.4958599347551</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>203.41392315477</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1352,6 +4327,31 @@
           <t>Sleep disorder</t>
         </is>
       </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2.0803442037302</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>592.34018892428</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1364,6 +4364,31 @@
           <t>Therapy non-responder</t>
         </is>
       </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>30.108079071214</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>3944.1930346023</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1376,6 +4401,31 @@
           <t>Thirst</t>
         </is>
       </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2.3274609576941</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>144.48114053699</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1388,6 +4438,31 @@
           <t>Ultrasound Doppler</t>
         </is>
       </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>4.2792366893669</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>730.98591532035</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1400,6 +4475,31 @@
           <t>Ultrasound Doppler abnormal</t>
         </is>
       </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>5.0933538822198</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>813.24477727124</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1412,6 +4512,31 @@
           <t>Ultrasound scan</t>
         </is>
       </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3.11562383679</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>922.42241828505</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1424,6 +4549,31 @@
           <t>Ultrasound scan abnormal</t>
         </is>
       </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2.0551019565812</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>80.874697382045</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1436,6 +4586,31 @@
           <t>Vision blurred</t>
         </is>
       </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2.8320641168411</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1328.9254710405</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1448,6 +4623,31 @@
           <t>Visual impairment</t>
         </is>
       </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2.2323574793724</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>381.03613531861</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1460,6 +4660,31 @@
           <t>Vital signs measurement</t>
         </is>
       </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>5.3683273060938</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>832.69232004664</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1472,6 +4697,56 @@
           <t>Vaccination site pain</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>8491</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.1106897130118</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2972.2886226533</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>10762</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>3.4476647056724</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>9139.9672644174</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1484,6 +4759,56 @@
           <t>Vaccine breakthrough infection</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.8055685352326</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2494.1447547685</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2.0404031287165</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1082.9186219848</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1496,6 +4821,31 @@
           <t>Expired product administered</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>24891</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2.7527931218405</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>15438.189322319</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1508,6 +4858,31 @@
           <t>Immunisation reaction</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2.4225224632103</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>505.21810756241</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1520,6 +4895,31 @@
           <t>Injection site pruritus</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>17241</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>3.5219186042064</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>15151.601506199</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1532,6 +4932,31 @@
           <t>Injection site rash</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>9803</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2.7574762879009</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>5986.9780326044</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1544,6 +4969,31 @@
           <t>Maternal exposure during pregnancy</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>3.0975827283294</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>670.16143373835</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1556,6 +5006,31 @@
           <t>Product dose omission issue</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>25.613835395646</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>7382.7941540079</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1568,6 +5043,31 @@
           <t>Product temperature excursion issue</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>18.188862621381</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>12510.457871386</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1580,6 +5080,31 @@
           <t>Vaccination complication</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>3.1665663910606</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>3026.8181082025</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1592,6 +5117,31 @@
           <t>Vaccination site erythema</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>6187</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>7.9964739604165</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>10932.946238896</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1604,6 +5154,31 @@
           <t>Vaccination site induration</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>8.13268672762</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>2239.230019617</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1616,6 +5191,31 @@
           <t>Vaccination site mass</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>4.1082375195636</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>946.33235251829</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1628,6 +5228,31 @@
           <t>Vaccination site pruritus</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>11.702578835371</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>8314.6627579831</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1640,6 +5265,31 @@
           <t>Vaccination site rash</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>8.4499955909465</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>4526.8956665437</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1652,6 +5302,31 @@
           <t>Vaccination site reaction</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>7.2065449320582</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2185.937090542</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1664,6 +5339,31 @@
           <t>Vaccination site swelling</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>4788</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>4.438014065114</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>5388.7382168538</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1676,6 +5376,31 @@
           <t>Vaccination site warmth</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>6.9156421405233</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>5142.2996013557</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1688,6 +5413,31 @@
           <t>Acute myocardial infarction</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.5768085680808</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>498.58500962494</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1700,6 +5450,31 @@
           <t>Acute respiratory failure</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.9939149912321</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2105.7044268758</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1712,6 +5487,31 @@
           <t>Ageusia</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2943</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.6389992901284</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1614.5822233843</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1724,6 +5524,31 @@
           <t>Anosmia</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2526</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.015396034117</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1719.0609350349</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1736,6 +5561,31 @@
           <t>Atrial fibrillation</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2362</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.1890629141796</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>891.98670711344</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1748,6 +5598,31 @@
           <t>Axillary pain</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3665</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.4987893439298</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1822.4758211584</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1760,6 +5635,31 @@
           <t>Bell\'s palsy</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.6547007567072</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1127.0769273232</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1772,6 +5672,31 @@
           <t>Blood pressure increased</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.1787871757901</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1480.6413739265</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1784,6 +5709,31 @@
           <t>Breast pain</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1281</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.6815544654553</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>720.52999711361</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1796,6 +5746,31 @@
           <t>Cardiac stress test</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.5353767665697</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>477.87780047232</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1808,6 +5783,31 @@
           <t>Chest discomfort</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>9706</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.2348263607678</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3878.2425613713</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1820,6 +5820,31 @@
           <t>Chest pain</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>15233</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.2738112654745</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>6364.7454950463</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1832,6 +5857,31 @@
           <t>COVID-19</t>
         </is>
       </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>46188</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3.1698777409061</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>35484.162436965</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1844,6 +5894,31 @@
           <t>Dysgeusia</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2777</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.237011003311</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1101.3559656029</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1856,6 +5931,31 @@
           <t>Ear discomfort</t>
         </is>
       </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1676</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.4347865743252</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>790.48021584373</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1868,6 +5968,31 @@
           <t>Echocardiogram</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3490</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.7835831582127</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2097.8730333232</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1880,6 +6005,31 @@
           <t>Echocardiogram abnormal</t>
         </is>
       </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.0663119076739</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>373.19373421724</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1892,6 +6042,31 @@
           <t>Echocardiogram normal</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.163206629642</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>514.62276809643</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1904,6 +6079,31 @@
           <t>Exposure to SARS-CoV-2</t>
         </is>
       </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.302491689028</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1430.4572245404</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1916,6 +6116,31 @@
           <t>Heart rate increased</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8401</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.02098945396</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2641.4381388765</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1928,6 +6153,31 @@
           <t>Heart rate irregular</t>
         </is>
       </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.2202468647545</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>489.62370652393</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1940,6 +6190,31 @@
           <t>Hypoacusis</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.2481896871632</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>402.62418959272</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1952,6 +6227,31 @@
           <t>Hypoaesthesia oral</t>
         </is>
       </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2833</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.4086602721982</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1310.7413032574</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1964,6 +6264,31 @@
           <t>Hypoxia</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2893</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.0522880458126</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>937.95974699724</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1976,6 +6301,31 @@
           <t>Illness</t>
         </is>
       </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3901</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.1095577573439</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1354.949039021</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1988,6 +6338,31 @@
           <t>Immunisation</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>28.828759570725</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>9779.4262468138</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2000,6 +6375,31 @@
           <t>Incorrect product formulation administered</t>
         </is>
       </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4607</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.1431393340587</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3339.7650592614</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2012,6 +6412,31 @@
           <t>Interchange of vaccine products</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.886284440137</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9217.8254757168</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2024,6 +6449,31 @@
           <t>Investigation</t>
         </is>
       </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>41.486001412772</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5300.1530197656</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2036,6 +6486,31 @@
           <t>Lymph node pain</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>3226</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.6979169114589</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1839.5668717268</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2048,6 +6523,31 @@
           <t>Lymphadenopathy</t>
         </is>
       </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>14256</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.1310875050666</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5145.6739064588</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2060,6 +6560,31 @@
           <t>Myocarditis</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>3.5502276957859</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1766.4131084192</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2072,6 +6597,31 @@
           <t>Palpitations</t>
         </is>
       </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>9247</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.3612010494849</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4146.5382235549</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2084,6 +6634,31 @@
           <t>Paraesthesia oral</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.4930992988583</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1896.2847090537</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2096,6 +6671,31 @@
           <t>Pericarditis</t>
         </is>
       </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.5843874168105</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>686.22575756508</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2108,6 +6708,31 @@
           <t>Pharyngeal swelling</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2527</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.7806311943489</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1514.3413707871</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2120,6 +6745,31 @@
           <t>Product preparation error</t>
         </is>
       </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.2703459597856</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>632.54068833806</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2132,6 +6782,31 @@
           <t>Product preparation issue</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5249</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>6.514467844211</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7873.2564122192</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2144,6 +6819,31 @@
           <t>SARS-CoV-2 test</t>
         </is>
       </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>21333</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>5.8086200099857</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>29869.640190297</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2156,6 +6856,31 @@
           <t>SARS-CoV-2 test negative</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>5723</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.4065375898609</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2653.8082112944</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2168,6 +6893,31 @@
           <t>SARS-CoV-2 test positive</t>
         </is>
       </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>28193</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.8046008310194</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>17663.667648958</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2180,6 +6930,31 @@
           <t>Swollen tongue</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2633</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.0056364135755</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>804.78835091682</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2192,6 +6967,31 @@
           <t>Throat irritation</t>
         </is>
       </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4058</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.0982596832738</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0.9</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1391.7422773053</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2204,6 +7004,31 @@
           <t>Tinnitus</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>9260</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.5804536170253</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4920.6678183625</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2216,6 +7041,31 @@
           <t>Troponin</t>
         </is>
       </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.7377218311075</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>800.16869337356</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2228,6 +7078,31 @@
           <t>Troponin increased</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.295936823526</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1520.2710518772</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2240,6 +7115,31 @@
           <t>Vaccination failure</t>
         </is>
       </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>5657</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.0761697774777</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1895.2731874391</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2250,6 +7150,31 @@
       <c r="B158" t="inlineStr">
         <is>
           <t>Weight</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>12.735280866768</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2395.4886801504</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>
